--- a/wether check data.xlsx
+++ b/wether check data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudhi\Desktop\Aarti Projects\project 18 - wether check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC6DCCD-D491-4BCF-B401-D8B72E54C47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4651B97D-7F52-420C-89B1-F102F51C9776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3972" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>state</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>gurgaon</t>
+  </si>
+  <si>
+    <t>assam</t>
   </si>
 </sst>
 </file>
@@ -363,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -419,6 +422,14 @@
         <v>6.78</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
